--- a/Files/InformacionPagosComision.xlsx
+++ b/Files/InformacionPagosComision.xlsx
@@ -91,7 +91,7 @@
     <x:t>CFCPS</x:t>
   </x:si>
   <x:si>
-    <x:t>Lunes a viernes</x:t>
+    <x:t>Lunes a Viernes</x:t>
   </x:si>
 </x:sst>
 </file>
